--- a/x64/Release/testdata/路径表.xlsx
+++ b/x64/Release/testdata/路径表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\Release\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C6300A-00BC-4D95-8249-97140803AC16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E70BAA-661D-4CB9-82CC-BD452D64844A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>塔号</t>
   </si>
@@ -1340,26 +1340,6 @@
     <t>N35.43278033</t>
   </si>
   <si>
-    <t>DSC00797.JPG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSC01170.JPG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSC01209.JPG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSC01264.JPG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSC01098.JPG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1546328450000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1369,6 +1349,35 @@
   </si>
   <si>
     <t>1546328490000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSC01208.JPG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSC01209.JPG</t>
+  </si>
+  <si>
+    <t>DSC01210.JPG</t>
+  </si>
+  <si>
+    <t>DSC01211.JPG</t>
+  </si>
+  <si>
+    <t>DSC00798.JPG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSC01064.JPG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSC01076.JPG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSC01063.JPG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1439,16 +1448,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,7 +1740,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1764,7 +1773,7 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1776,7 +1785,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1800,8 +1809,8 @@
       <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>102</v>
+      <c r="H3" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1812,7 +1821,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1834,10 +1843,10 @@
         <v>108.44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1848,7 +1857,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -1870,10 +1879,10 @@
         <v>113.35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1884,7 +1893,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1905,11 +1914,11 @@
       <c r="F9" s="2">
         <v>118.56</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>102</v>
+      <c r="G9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1920,7 +1929,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1941,9 +1950,11 @@
       <c r="F11" s="2">
         <v>104.02</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="3" t="s">
-        <v>102</v>
+      <c r="G11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1954,7 +1965,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1975,11 +1986,11 @@
       <c r="F13" s="2">
         <v>104.78</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1990,7 +2001,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -2011,11 +2022,11 @@
       <c r="F15" s="2">
         <v>109.93</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>101</v>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -2026,7 +2037,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
@@ -2048,10 +2059,10 @@
         <v>114.65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -2062,7 +2073,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -2084,10 +2095,10 @@
         <v>119.56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -2098,7 +2109,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -2119,9 +2130,11 @@
       <c r="F21" s="2">
         <v>104.7</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
-        <v>101</v>
+      <c r="G21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -2132,7 +2145,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2153,9 +2166,11 @@
       <c r="F23" s="2">
         <v>109.89</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
-        <v>101</v>
+      <c r="G23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -2166,7 +2181,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -2188,8 +2203,8 @@
         <v>119.22</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>101</v>
+      <c r="H25" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -2200,7 +2215,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -2222,8 +2237,8 @@
         <v>113.88</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
-        <v>100</v>
+      <c r="H27" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -2234,7 +2249,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -2256,8 +2271,8 @@
         <v>118.92</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
-        <v>100</v>
+      <c r="H29" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2268,7 +2283,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -2290,8 +2305,8 @@
         <v>124.35</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="3" t="s">
-        <v>100</v>
+      <c r="H31" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2302,7 +2317,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
@@ -2324,8 +2339,8 @@
         <v>128.58000000000001</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
-        <v>100</v>
+      <c r="H33" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2336,7 +2351,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -2358,8 +2373,8 @@
         <v>114.07</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
-        <v>100</v>
+      <c r="H35" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -2370,7 +2385,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
@@ -2392,8 +2407,8 @@
         <v>119.04</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="3" t="s">
-        <v>100</v>
+      <c r="H37" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -2404,7 +2419,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2426,8 +2441,8 @@
         <v>124.58</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="3" t="s">
-        <v>100</v>
+      <c r="H39" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -2438,7 +2453,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -2460,8 +2475,8 @@
         <v>129.18</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="3" t="s">
-        <v>100</v>
+      <c r="H41" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2472,7 +2487,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
@@ -2494,8 +2509,8 @@
         <v>113.57</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="3" t="s">
-        <v>100</v>
+      <c r="H43" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2506,7 +2521,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -2528,8 +2543,8 @@
         <v>118.68</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="3" t="s">
-        <v>100</v>
+      <c r="H45" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2540,7 +2555,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
@@ -2562,8 +2577,8 @@
         <v>123.95</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="3" t="s">
-        <v>100</v>
+      <c r="H47" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2574,7 +2589,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -2596,8 +2611,8 @@
         <v>128.84</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="3" t="s">
-        <v>100</v>
+      <c r="H49" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2608,7 +2623,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
@@ -2630,8 +2645,8 @@
         <v>114.07</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="3" t="s">
-        <v>100</v>
+      <c r="H51" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2642,7 +2657,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
@@ -2664,8 +2679,8 @@
         <v>117.98</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="3" t="s">
-        <v>100</v>
+      <c r="H53" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2676,7 +2691,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -2698,8 +2713,8 @@
         <v>123.88</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="3" t="s">
-        <v>100</v>
+      <c r="H55" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2710,7 +2725,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2732,8 +2747,8 @@
         <v>128.58000000000001</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="3" t="s">
-        <v>100</v>
+      <c r="H57" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2744,36 +2759,184 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="232">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="F1:F2"/>
@@ -2798,138 +2961,32 @@
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="G11:G12"/>
@@ -2938,48 +2995,6 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
